--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H2">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.20310720508642</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N2">
-        <v>2.20310720508642</v>
+        <v>1.556296</v>
       </c>
       <c r="O2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q2">
-        <v>343.0341849957827</v>
+        <v>81.09406040752799</v>
       </c>
       <c r="R2">
-        <v>343.0341849957827</v>
+        <v>729.8465436677519</v>
       </c>
       <c r="S2">
-        <v>0.1887888368506913</v>
+        <v>0.03311116225885765</v>
       </c>
       <c r="T2">
-        <v>0.1887888368506913</v>
+        <v>0.03311116225885766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H3">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I3">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J3">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.123689488153447</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>0.123689488153447</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q3">
-        <v>19.25903681096574</v>
+        <v>349.2191840384431</v>
       </c>
       <c r="R3">
-        <v>19.25903681096574</v>
+        <v>3142.972656345988</v>
       </c>
       <c r="S3">
-        <v>0.01059920940081109</v>
+        <v>0.1425881625422885</v>
       </c>
       <c r="T3">
-        <v>0.01059920940081109</v>
+        <v>0.1425881625422885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H4">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I4">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J4">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0705825375280405</v>
+        <v>0.134921</v>
       </c>
       <c r="N4">
-        <v>0.0705825375280405</v>
+        <v>0.404763</v>
       </c>
       <c r="O4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q4">
-        <v>10.99003406641569</v>
+        <v>21.091023283959</v>
       </c>
       <c r="R4">
-        <v>10.99003406641569</v>
+        <v>189.819209555631</v>
       </c>
       <c r="S4">
-        <v>0.006048364387862977</v>
+        <v>0.008611583766444171</v>
       </c>
       <c r="T4">
-        <v>0.006048364387862977</v>
+        <v>0.008611583766444175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>331.632421038158</v>
+        <v>156.321279</v>
       </c>
       <c r="H5">
-        <v>331.632421038158</v>
+        <v>468.963837</v>
       </c>
       <c r="I5">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J5">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20310720508642</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N5">
-        <v>2.20310720508642</v>
+        <v>0.434273</v>
       </c>
       <c r="O5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q5">
-        <v>730.6217762294191</v>
+        <v>22.628703598389</v>
       </c>
       <c r="R5">
-        <v>730.6217762294191</v>
+        <v>203.658332385501</v>
       </c>
       <c r="S5">
-        <v>0.4020976373355731</v>
+        <v>0.009239427311797299</v>
       </c>
       <c r="T5">
-        <v>0.4020976373355731</v>
+        <v>0.009239427311797301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>331.632421038158</v>
+        <v>156.321279</v>
       </c>
       <c r="H6">
-        <v>331.632421038158</v>
+        <v>468.963837</v>
       </c>
       <c r="I6">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J6">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.123689488153447</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N6">
-        <v>0.123689488153447</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q6">
-        <v>41.01944441329819</v>
+        <v>26.293447556172</v>
       </c>
       <c r="R6">
-        <v>41.01944441329819</v>
+        <v>236.641028005548</v>
       </c>
       <c r="S6">
-        <v>0.02257504802077776</v>
+        <v>0.01073576293999895</v>
       </c>
       <c r="T6">
-        <v>0.02257504802077776</v>
+        <v>0.01073576293999895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H7">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J7">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0705825375280405</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N7">
-        <v>0.0705825375280405</v>
+        <v>1.556296</v>
       </c>
       <c r="O7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q7">
-        <v>23.40745780344071</v>
+        <v>172.0553535560658</v>
       </c>
       <c r="R7">
-        <v>23.40745780344071</v>
+        <v>1548.498182004592</v>
       </c>
       <c r="S7">
-        <v>0.0128822925691722</v>
+        <v>0.07025117129997802</v>
       </c>
       <c r="T7">
-        <v>0.0128822925691722</v>
+        <v>0.07025117129997802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.58451713478711</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H8">
-        <v>92.58451713478711</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J8">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.20310720508642</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>2.20310720508642</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q8">
-        <v>203.9736167790966</v>
+        <v>740.9300986576003</v>
       </c>
       <c r="R8">
-        <v>203.9736167790966</v>
+        <v>6668.370887918402</v>
       </c>
       <c r="S8">
-        <v>0.1122568640219567</v>
+        <v>0.3025259383465993</v>
       </c>
       <c r="T8">
-        <v>0.1122568640219567</v>
+        <v>0.3025259383465993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.58451713478711</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H9">
-        <v>92.58451713478711</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J9">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.123689488153447</v>
+        <v>0.134921</v>
       </c>
       <c r="N9">
-        <v>0.123689488153447</v>
+        <v>0.404763</v>
       </c>
       <c r="O9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q9">
-        <v>11.45173153533586</v>
+        <v>44.74832619978066</v>
       </c>
       <c r="R9">
-        <v>11.45173153533586</v>
+        <v>402.734935798026</v>
       </c>
       <c r="S9">
-        <v>0.006302459553729372</v>
+        <v>0.01827099398115333</v>
       </c>
       <c r="T9">
-        <v>0.006302459553729372</v>
+        <v>0.01827099398115333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.58451713478711</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H10">
-        <v>92.58451713478711</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I10">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J10">
-        <v>0.1221557778468703</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0705825375280405</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N10">
-        <v>0.0705825375280405</v>
+        <v>0.434273</v>
       </c>
       <c r="O10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q10">
-        <v>6.53485015518162</v>
+        <v>48.01078622244955</v>
       </c>
       <c r="R10">
-        <v>6.53485015518162</v>
+        <v>432.097076002046</v>
       </c>
       <c r="S10">
-        <v>0.003596454271184271</v>
+        <v>0.01960307480964762</v>
       </c>
       <c r="T10">
-        <v>0.003596454271184271</v>
+        <v>0.01960307480964762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.53003224009861</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H11">
-        <v>91.53003224009861</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I11">
-        <v>0.1207644931426371</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J11">
-        <v>0.1207644931426371</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.20310720508642</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N11">
-        <v>2.20310720508642</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q11">
-        <v>201.6504735099535</v>
+        <v>55.78618696302311</v>
       </c>
       <c r="R11">
-        <v>201.6504735099535</v>
+        <v>502.075682667208</v>
       </c>
       <c r="S11">
-        <v>0.1109783223057006</v>
+        <v>0.02277781478758161</v>
       </c>
       <c r="T11">
-        <v>0.1109783223057006</v>
+        <v>0.02277781478758161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.53003224009861</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H12">
-        <v>91.53003224009861</v>
+        <v>280.802887</v>
       </c>
       <c r="I12">
-        <v>0.1207644931426371</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J12">
-        <v>0.1207644931426371</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.123689488153447</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N12">
-        <v>0.123689488153447</v>
+        <v>1.556296</v>
       </c>
       <c r="O12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q12">
-        <v>11.3213028384463</v>
+        <v>48.55693442517244</v>
       </c>
       <c r="R12">
-        <v>11.3213028384463</v>
+        <v>437.012409826552</v>
       </c>
       <c r="S12">
-        <v>0.00623067813060959</v>
+        <v>0.01982607020125663</v>
       </c>
       <c r="T12">
-        <v>0.00623067813060959</v>
+        <v>0.01982607020125663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.53003224009861</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H13">
-        <v>91.53003224009861</v>
+        <v>280.802887</v>
       </c>
       <c r="I13">
-        <v>0.1207644931426371</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J13">
-        <v>0.1207644931426371</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0705825375280405</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>0.0705825375280405</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q13">
-        <v>6.460421935529517</v>
+        <v>209.1030210369486</v>
       </c>
       <c r="R13">
-        <v>6.460421935529517</v>
+        <v>1881.927189332537</v>
       </c>
       <c r="S13">
-        <v>0.003555492706326934</v>
+        <v>0.08537794289221463</v>
       </c>
       <c r="T13">
-        <v>0.003555492706326934</v>
+        <v>0.08537794289221465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.470031111476</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H14">
-        <v>86.470031111476</v>
+        <v>280.802887</v>
       </c>
       <c r="I14">
-        <v>0.1140883404456038</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J14">
-        <v>0.1140883404456038</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.20310720508642</v>
+        <v>0.134921</v>
       </c>
       <c r="N14">
-        <v>2.20310720508642</v>
+        <v>0.404763</v>
       </c>
       <c r="O14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q14">
-        <v>190.5027485657397</v>
+        <v>12.62873543897567</v>
       </c>
       <c r="R14">
-        <v>190.5027485657397</v>
+        <v>113.658618950781</v>
       </c>
       <c r="S14">
-        <v>0.1048431727555895</v>
+        <v>0.005156383909533427</v>
       </c>
       <c r="T14">
-        <v>0.1048431727555895</v>
+        <v>0.005156383909533429</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.470031111476</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H15">
-        <v>86.470031111476</v>
+        <v>280.802887</v>
       </c>
       <c r="I15">
-        <v>0.1140883404456038</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J15">
-        <v>0.1140883404456038</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.123689488153447</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N15">
-        <v>0.123689488153447</v>
+        <v>0.434273</v>
       </c>
       <c r="O15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q15">
-        <v>10.69543388879111</v>
+        <v>13.54945690512789</v>
       </c>
       <c r="R15">
-        <v>10.69543388879111</v>
+        <v>121.945112146151</v>
       </c>
       <c r="S15">
-        <v>0.005886231203176336</v>
+        <v>0.005532319677304523</v>
       </c>
       <c r="T15">
-        <v>0.005886231203176336</v>
+        <v>0.005532319677304523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H16">
+        <v>280.802887</v>
+      </c>
+      <c r="I16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P16">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q16">
+        <v>15.74380666574978</v>
+      </c>
+      <c r="R16">
+        <v>141.694259991748</v>
+      </c>
+      <c r="S16">
+        <v>0.006428285061347519</v>
+      </c>
+      <c r="T16">
+        <v>0.006428285061347521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>86.470031111476</v>
-      </c>
-      <c r="H16">
-        <v>86.470031111476</v>
-      </c>
-      <c r="I16">
-        <v>0.1140883404456038</v>
-      </c>
-      <c r="J16">
-        <v>0.1140883404456038</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="N16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="O16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="P16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="Q16">
-        <v>6.103274215976585</v>
-      </c>
-      <c r="R16">
-        <v>6.103274215976585</v>
-      </c>
-      <c r="S16">
-        <v>0.003358936486837895</v>
-      </c>
-      <c r="T16">
-        <v>0.003358936486837895</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H17">
+        <v>276.929772</v>
+      </c>
+      <c r="I17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.556296</v>
+      </c>
+      <c r="O17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q17">
+        <v>47.88718849383467</v>
+      </c>
+      <c r="R17">
+        <v>430.984696444512</v>
+      </c>
+      <c r="S17">
+        <v>0.01955260915992645</v>
+      </c>
+      <c r="T17">
+        <v>0.01955260915992645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H18">
+        <v>276.929772</v>
+      </c>
+      <c r="I18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q18">
+        <v>206.2188624872414</v>
+      </c>
+      <c r="R18">
+        <v>1855.969762385172</v>
+      </c>
+      <c r="S18">
+        <v>0.0842003246888627</v>
+      </c>
+      <c r="T18">
+        <v>0.08420032468886271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H19">
+        <v>276.929772</v>
+      </c>
+      <c r="I19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.134921</v>
+      </c>
+      <c r="N19">
+        <v>0.404763</v>
+      </c>
+      <c r="O19">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P19">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q19">
+        <v>12.454547256004</v>
+      </c>
+      <c r="R19">
+        <v>112.090925304036</v>
+      </c>
+      <c r="S19">
+        <v>0.005085261891953272</v>
+      </c>
+      <c r="T19">
+        <v>0.005085261891953273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H20">
+        <v>276.929772</v>
+      </c>
+      <c r="I20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.434273</v>
+      </c>
+      <c r="O20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q20">
+        <v>13.36256920841734</v>
+      </c>
+      <c r="R20">
+        <v>120.263122875756</v>
+      </c>
+      <c r="S20">
+        <v>0.005456012376635769</v>
+      </c>
+      <c r="T20">
+        <v>0.00545601237663577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H21">
+        <v>276.929772</v>
+      </c>
+      <c r="I21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P21">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q21">
+        <v>15.52665229669867</v>
+      </c>
+      <c r="R21">
+        <v>139.739870670288</v>
+      </c>
+      <c r="S21">
+        <v>0.00633961970764914</v>
+      </c>
+      <c r="T21">
+        <v>0.006339619707649143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H22">
+        <v>273.936855</v>
+      </c>
+      <c r="I22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.556296</v>
+      </c>
+      <c r="O22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q22">
+        <v>47.36964796545332</v>
+      </c>
+      <c r="R22">
+        <v>426.3268316890799</v>
+      </c>
+      <c r="S22">
+        <v>0.01934129444310684</v>
+      </c>
+      <c r="T22">
+        <v>0.01934129444310684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H23">
+        <v>273.936855</v>
+      </c>
+      <c r="I23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q23">
+        <v>203.9901532560117</v>
+      </c>
+      <c r="R23">
+        <v>1835.911379304105</v>
+      </c>
+      <c r="S23">
+        <v>0.08329033013917297</v>
+      </c>
+      <c r="T23">
+        <v>0.08329033013917297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H24">
+        <v>273.936855</v>
+      </c>
+      <c r="I24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.134921</v>
+      </c>
+      <c r="N24">
+        <v>0.404763</v>
+      </c>
+      <c r="O24">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P24">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q24">
+        <v>12.319944804485</v>
+      </c>
+      <c r="R24">
+        <v>110.879503240365</v>
+      </c>
+      <c r="S24">
+        <v>0.005030302951800463</v>
+      </c>
+      <c r="T24">
+        <v>0.005030302951800463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H25">
+        <v>273.936855</v>
+      </c>
+      <c r="I25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.434273</v>
+      </c>
+      <c r="O25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q25">
+        <v>13.21815331460166</v>
+      </c>
+      <c r="R25">
+        <v>118.963379831415</v>
+      </c>
+      <c r="S25">
+        <v>0.005397046552642516</v>
+      </c>
+      <c r="T25">
+        <v>0.005397046552642516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H26">
+        <v>273.936855</v>
+      </c>
+      <c r="I26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P26">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q26">
+        <v>15.35884808671333</v>
+      </c>
+      <c r="R26">
+        <v>138.22963278042</v>
+      </c>
+      <c r="S26">
+        <v>0.006271104302246797</v>
+      </c>
+      <c r="T26">
+        <v>0.0062711043022468</v>
       </c>
     </row>
   </sheetData>
